--- a/Homework/HW2_Phoenix/Phoenix IBM cloudStudio.xlsx
+++ b/Homework/HW2_Phoenix/Phoenix IBM cloudStudio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shlomi\Documents\GitHub\PhoenixProject2025\Assignments\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shlomi\Documents\GitHub\PhoenixProject2025\Homework\HW2_Phoenix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>Code</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>נוסיף הסבר לגרפים</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Average after subtraction</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>final grade</t>
   </si>
 </sst>
 </file>
@@ -342,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,11 +377,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
@@ -383,6 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2155,93 +2183,114 @@
       <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H25">
+      <c r="G25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7">
         <f>AVERAGE(H2:H4, H6:H12, H14:H24)</f>
         <v>3.9523809523809526</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <f>AVERAGE(I2:I24)</f>
         <v>1.9523809523809523</v>
       </c>
-      <c r="J25">
-        <f t="shared" ref="J25:Q26" si="0">AVERAGE(J2:J24)</f>
+      <c r="J25" s="7">
+        <f t="shared" ref="J25:Q25" si="0">AVERAGE(J2:J24)</f>
         <v>4.0476190476190474</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <f t="shared" si="0"/>
         <v>1.6190476190476191</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <f t="shared" si="0"/>
         <v>4.2380952380952381</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="7">
         <f t="shared" si="0"/>
         <v>3.9047619047619047</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="7">
         <f t="shared" si="0"/>
         <v>1.85</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="7">
         <f t="shared" si="0"/>
         <v>3.9523809523809526</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="7">
         <f t="shared" si="0"/>
         <v>1.9047619047619047</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G26" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="H26">
-        <f>AVERAGE(H3:H5, H7:H13, H15:H25)</f>
-        <v>3.9448621553884711</v>
+        <f>ABS(H25)-1</f>
+        <v>2.9523809523809526</v>
       </c>
       <c r="I26">
         <f>ABS(5-I25)</f>
         <v>3.0476190476190474</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>4.0022675736961455</v>
+        <f>ABS(J25)-1</f>
+        <v>3.0476190476190474</v>
       </c>
       <c r="K26">
         <f>ABS(5-K25)</f>
         <v>3.3809523809523809</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
-        <v>4.2018140589569164</v>
+        <f t="shared" ref="L26" si="1">ABS(L25)-1</f>
+        <v>3.2380952380952381</v>
       </c>
       <c r="M26">
-        <f>ABS(5-M25)</f>
+        <f t="shared" ref="M26" si="2">ABS(5-M25)</f>
         <v>3.2857142857142856</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>3.8526077097505667</v>
+        <f t="shared" ref="N26" si="3">ABS(N25)-1</f>
+        <v>2.9047619047619047</v>
       </c>
       <c r="O26">
-        <f>ABS(5-O25)</f>
+        <f t="shared" ref="O26" si="4">ABS(5-O25)</f>
         <v>3.15</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>3.9024943310657596</v>
+        <f t="shared" ref="P26" si="5">ABS(P25)-1</f>
+        <v>2.9523809523809526</v>
       </c>
       <c r="Q26">
-        <f>ABS(5-Q25)</f>
+        <f t="shared" ref="Q26" si="6">ABS(5-Q25)</f>
         <v>3.0952380952380953</v>
       </c>
     </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G27" s="5"/>
+    </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G28" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="H28">
         <f>SUM(H26:Q26)</f>
-        <v>35.863569638381662</v>
+        <v>31.054761904761904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29">
+        <f>ABS(H28*2.5)</f>
+        <v>77.636904761904759</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="6:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="6:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2319,7 +2368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="6:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
